--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1458442.421880402</v>
+        <v>1520901.168756468</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2460204.061553705</v>
+        <v>698313.6830760716</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6757775.161189915</v>
+        <v>7334355.544265411</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>301.4264642108542</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -671,13 +673,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>68.90093309036328</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -829,10 +831,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>211.9199698893711</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -880,7 +882,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>142.3479518001831</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -899,13 +901,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>158.8209544049383</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>35.82015822408102</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
@@ -1054,13 +1056,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -1069,10 +1071,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>244.4497235644795</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1136,10 +1138,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>76.1273791797441</v>
       </c>
       <c r="E8" t="n">
-        <v>44.87028835503766</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
@@ -1294,16 +1296,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>123.9086344760398</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1370,10 +1372,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -1382,10 +1384,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>293.2460051449914</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>186.9176635037755</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1421,19 +1423,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1531,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429432</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1619,13 +1621,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>133.7682651318491</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>293.3118661077283</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.07475062513829</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100375</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -1910,7 +1912,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446589</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2004,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -2011,16 +2013,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,22 +2055,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>180.0196592840957</v>
       </c>
       <c r="Y19" t="n">
-        <v>119.6878865881506</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,7 +2137,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095521</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -2245,19 +2247,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>162.0057120490094</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>161.6737988100367</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>218.7757544134941</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>154.8833258811978</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2713,19 +2715,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>105.0134374522401</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>217.5426765188308</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2779,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2953,19 +2955,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>60.37231082770526</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -2998,16 +3000,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>109.826847404852</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3187,10 +3189,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>83.3192660845864</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>51.58543740429501</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -3439,7 +3441,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>123.9086344760396</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.9592079378077</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3664,16 +3666,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429501</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>126.362145948815</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -3718,13 +3720,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3749,13 +3751,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>221.465566047739</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>160.664434837169</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100367</v>
       </c>
       <c r="W43" t="n">
-        <v>128.1457107203879</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3983,16 +3985,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>182.6470420306491</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>29.89949249262446</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4135,22 +4137,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>105.0134374522403</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>260.444681387164</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>841.7889155111251</v>
+        <v>234.12485472008</v>
       </c>
       <c r="C2" t="n">
-        <v>818.9285895648293</v>
+        <v>211.2645287737841</v>
       </c>
       <c r="D2" t="n">
-        <v>799.6763727902336</v>
+        <v>192.0123119991885</v>
       </c>
       <c r="E2" t="n">
-        <v>777.7398369784952</v>
+        <v>170.0757761874501</v>
       </c>
       <c r="F2" t="n">
-        <v>756.6560592082994</v>
+        <v>148.9919984172544</v>
       </c>
       <c r="G2" t="n">
-        <v>352.3169967977481</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H2" t="n">
-        <v>54.44861827178296</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J2" t="n">
-        <v>54.44861827178296</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>54.44861827178296</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L2" t="n">
-        <v>728.2502693850971</v>
+        <v>549.9383681074142</v>
       </c>
       <c r="M2" t="n">
-        <v>728.2502693850971</v>
+        <v>549.9383681074142</v>
       </c>
       <c r="N2" t="n">
-        <v>918.7421318583365</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="O2" t="n">
-        <v>1592.543782971651</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P2" t="n">
-        <v>2266.345434084965</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q2" t="n">
-        <v>2722.430913589148</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S2" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T2" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U2" t="n">
-        <v>2359.7087100587</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V2" t="n">
-        <v>2359.7087100587</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W2" t="n">
-        <v>1963.317360359047</v>
+        <v>1471.030487888972</v>
       </c>
       <c r="X2" t="n">
-        <v>1551.597361526795</v>
+        <v>1059.31048905672</v>
       </c>
       <c r="Y2" t="n">
-        <v>1146.260091481685</v>
+        <v>653.97321901161</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8784832918694</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G3" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H3" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I3" t="n">
-        <v>61.8952612336948</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J3" t="n">
-        <v>61.8952612336948</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K3" t="n">
-        <v>61.8952612336948</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L3" t="n">
-        <v>735.6969123470089</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="M3" t="n">
-        <v>735.6969123470089</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N3" t="n">
-        <v>735.6969123470089</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O3" t="n">
-        <v>735.6969123470089</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P3" t="n">
-        <v>1316.97146190481</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
-        <v>1781.11693876759</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>827.6252664570278</v>
+        <v>795.21417202057</v>
       </c>
       <c r="C4" t="n">
-        <v>655.6527033359438</v>
+        <v>623.241608899486</v>
       </c>
       <c r="D4" t="n">
-        <v>492.3359304627145</v>
+        <v>459.9248360262567</v>
       </c>
       <c r="E4" t="n">
-        <v>492.3359304627145</v>
+        <v>459.9248360262567</v>
       </c>
       <c r="F4" t="n">
-        <v>320.4741562372749</v>
+        <v>288.0630618008171</v>
       </c>
       <c r="G4" t="n">
-        <v>154.217186531507</v>
+        <v>288.0630618008171</v>
       </c>
       <c r="H4" t="n">
-        <v>154.217186531507</v>
+        <v>144.2667933089715</v>
       </c>
       <c r="I4" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J4" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M4" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N4" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P4" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R4" t="n">
-        <v>2187.823032372085</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S4" t="n">
-        <v>2187.823032372085</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T4" t="n">
-        <v>1944.483684597984</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U4" t="n">
-        <v>1944.483684597984</v>
+        <v>2010.850676816547</v>
       </c>
       <c r="V4" t="n">
-        <v>1662.772217206013</v>
+        <v>1729.139209424575</v>
       </c>
       <c r="W4" t="n">
-        <v>1387.919813378526</v>
+        <v>1454.286805597088</v>
       </c>
       <c r="X4" t="n">
-        <v>1244.134003479351</v>
+        <v>1211.722909042894</v>
       </c>
       <c r="Y4" t="n">
-        <v>1017.791235169093</v>
+        <v>985.3801407326357</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1493.174334761007</v>
+        <v>1392.046023333888</v>
       </c>
       <c r="C5" t="n">
-        <v>1066.273604774307</v>
+        <v>965.145293347188</v>
       </c>
       <c r="D5" t="n">
-        <v>905.8483983046725</v>
+        <v>541.8526725321883</v>
       </c>
       <c r="E5" t="n">
-        <v>883.9118624929341</v>
+        <v>519.9161367204499</v>
       </c>
       <c r="F5" t="n">
-        <v>458.7876806823343</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>54.44861827178296</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>54.44861827178296</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K5" t="n">
-        <v>54.44861827178296</v>
+        <v>572.9146475090616</v>
       </c>
       <c r="L5" t="n">
-        <v>54.44861827178296</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M5" t="n">
-        <v>728.2502693850971</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N5" t="n">
-        <v>1402.051920498411</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.853571611725</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P5" t="n">
-        <v>2148.789099203062</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q5" t="n">
-        <v>2604.874578707245</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W5" t="n">
-        <v>2326.039563889495</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X5" t="n">
-        <v>2318.359969097647</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y5" t="n">
-        <v>1913.022699052537</v>
+        <v>1811.894387625418</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8784832918694</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J6" t="n">
-        <v>326.146107551374</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>916.6310341197136</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L6" t="n">
-        <v>916.6310341197136</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M6" t="n">
-        <v>916.6310341197136</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="N6" t="n">
-        <v>916.6310341197136</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="O6" t="n">
-        <v>916.6310341197136</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P6" t="n">
-        <v>1398.990771989513</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>555.8841350762196</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>555.8841350762196</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>392.5673622029904</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>392.5673622029904</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>220.7055879775508</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>54.44861827178296</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>54.44861827178296</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2187.823032372085</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2017.687984891219</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>1774.348637117119</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U7" t="n">
-        <v>1494.164188617424</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V7" t="n">
-        <v>1247.24527592603</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>972.3928720985432</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>972.3928720985432</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>746.0501037882852</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1006.244800061301</v>
+        <v>591.614269593831</v>
       </c>
       <c r="C8" t="n">
-        <v>579.3440700746016</v>
+        <v>164.7135396071311</v>
       </c>
       <c r="D8" t="n">
-        <v>156.0514492596019</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E8" t="n">
-        <v>110.7279256686548</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>89.64414789845907</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>89.34548952831176</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>89.34548952831176</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>417.0520770886785</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>417.0520770886785</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>1090.853728201993</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>1764.655379315307</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N8" t="n">
-        <v>1764.655379315307</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="O8" t="n">
-        <v>2438.457030428621</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P8" t="n">
-        <v>2604.874578707245</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2604.874578707245</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2501.505342633781</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2243.150433230194</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>2243.150433230194</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>2243.150433230194</v>
+        <v>1828.519902762723</v>
       </c>
       <c r="X8" t="n">
-        <v>1831.430434397941</v>
+        <v>1416.799903930471</v>
       </c>
       <c r="Y8" t="n">
-        <v>1426.093164352832</v>
+        <v>1011.462633885361</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>54.44861827178296</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>54.44861827178296</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L9" t="n">
-        <v>728.2502693850971</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M9" t="n">
-        <v>1402.051920498411</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N9" t="n">
-        <v>1402.051920498411</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="O9" t="n">
-        <v>1863.136248852293</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="P9" t="n">
-        <v>1863.136248852293</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>894.0649040444501</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C10" t="n">
-        <v>722.0923409233661</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D10" t="n">
-        <v>558.7755680501368</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E10" t="n">
-        <v>392.5673622029904</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F10" t="n">
-        <v>220.7055879775508</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2234.861645684911</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2234.861645684911</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>2234.861645684911</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>2109.701408840427</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1827.989941448456</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1553.137537620968</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>1310.573641066774</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>1084.230872756516</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1534.523075722061</v>
+        <v>2429.413071721397</v>
       </c>
       <c r="C11" t="n">
-        <v>1534.523075722061</v>
+        <v>2002.512341734697</v>
       </c>
       <c r="D11" t="n">
-        <v>1534.523075722061</v>
+        <v>1579.219720919697</v>
       </c>
       <c r="E11" t="n">
-        <v>1108.546135869919</v>
+        <v>1153.242781067554</v>
       </c>
       <c r="F11" t="n">
-        <v>683.4219540593188</v>
+        <v>728.1185992569547</v>
       </c>
       <c r="G11" t="n">
-        <v>387.2138680542769</v>
+        <v>323.7795368464033</v>
       </c>
       <c r="H11" t="n">
-        <v>89.34548952831176</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>417.0520770886785</v>
+        <v>462.6804036958857</v>
       </c>
       <c r="K11" t="n">
-        <v>583.4696253673028</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1257.271276480617</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="M11" t="n">
-        <v>1257.271276480617</v>
+        <v>2182.474813090443</v>
       </c>
       <c r="N11" t="n">
-        <v>1931.072927593931</v>
+        <v>3158.725871577144</v>
       </c>
       <c r="O11" t="n">
-        <v>2604.874578707245</v>
+        <v>4003.870521727956</v>
       </c>
       <c r="P11" t="n">
-        <v>2604.874578707245</v>
+        <v>4430.205429563422</v>
       </c>
       <c r="Q11" t="n">
-        <v>2604.874578707245</v>
+        <v>4886.290909067605</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="S11" t="n">
-        <v>2618.063619462288</v>
+        <v>4899.479949822648</v>
       </c>
       <c r="T11" t="n">
-        <v>2618.063619462288</v>
+        <v>4678.55437886728</v>
       </c>
       <c r="U11" t="n">
-        <v>2359.7087100587</v>
+        <v>4420.199469463692</v>
       </c>
       <c r="V11" t="n">
-        <v>2359.7087100587</v>
+        <v>4062.710054589942</v>
       </c>
       <c r="W11" t="n">
-        <v>2359.7087100587</v>
+        <v>3666.318704890289</v>
       </c>
       <c r="X11" t="n">
-        <v>2359.7087100587</v>
+        <v>3254.598706058036</v>
       </c>
       <c r="Y11" t="n">
-        <v>1954.371440013591</v>
+        <v>2849.261436012927</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>728.2502693850971</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M12" t="n">
-        <v>728.2502693850971</v>
+        <v>1156.063482855035</v>
       </c>
       <c r="N12" t="n">
-        <v>728.2502693850971</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O12" t="n">
-        <v>1189.334597738979</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1137.62974079602</v>
+        <v>324.1560104286543</v>
       </c>
       <c r="C13" t="n">
-        <v>965.6571776749358</v>
+        <v>152.1834473075703</v>
       </c>
       <c r="D13" t="n">
-        <v>802.3404048017065</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="E13" t="n">
-        <v>636.1321989545601</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="F13" t="n">
-        <v>464.2704247291205</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G13" t="n">
-        <v>298.0134550233526</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H13" t="n">
-        <v>154.217186531507</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R13" t="n">
-        <v>2234.861645684911</v>
+        <v>2233.451358979292</v>
       </c>
       <c r="S13" t="n">
-        <v>2234.861645684911</v>
+        <v>2063.316311498427</v>
       </c>
       <c r="T13" t="n">
-        <v>2234.861645684911</v>
+        <v>1819.976963724327</v>
       </c>
       <c r="U13" t="n">
-        <v>2234.861645684911</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V13" t="n">
-        <v>2071.554778200025</v>
+        <v>1258.08104783266</v>
       </c>
       <c r="W13" t="n">
-        <v>1796.702374372538</v>
+        <v>983.2286440051728</v>
       </c>
       <c r="X13" t="n">
-        <v>1554.138477818344</v>
+        <v>740.6647474509779</v>
       </c>
       <c r="Y13" t="n">
-        <v>1327.795709508086</v>
+        <v>514.3219791407199</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1755.743090736225</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C14" t="n">
-        <v>1328.842360749525</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>905.5497399345252</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>479.5728000823827</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>54.44861827178296</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>54.44861827178296</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>54.44861827178296</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>417.0520770886785</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K14" t="n">
-        <v>417.0520770886785</v>
+        <v>422.7047722338292</v>
       </c>
       <c r="L14" t="n">
-        <v>417.0520770886785</v>
+        <v>1352.329819853106</v>
       </c>
       <c r="M14" t="n">
-        <v>1090.853728201993</v>
+        <v>2356.615921272164</v>
       </c>
       <c r="N14" t="n">
-        <v>1764.655379315307</v>
+        <v>3332.866979758865</v>
       </c>
       <c r="O14" t="n">
-        <v>1764.655379315307</v>
+        <v>4178.011629909677</v>
       </c>
       <c r="P14" t="n">
-        <v>2148.789099203062</v>
+        <v>4886.290909067605</v>
       </c>
       <c r="Q14" t="n">
-        <v>2604.874578707245</v>
+        <v>4886.290909067605</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.430913589148</v>
+        <v>4899.479949822648</v>
       </c>
       <c r="T14" t="n">
-        <v>2722.430913589148</v>
+        <v>4678.55437886728</v>
       </c>
       <c r="U14" t="n">
-        <v>2722.430913589148</v>
+        <v>4420.199469463692</v>
       </c>
       <c r="V14" t="n">
-        <v>2722.430913589148</v>
+        <v>4062.710054589942</v>
       </c>
       <c r="W14" t="n">
-        <v>2587.311453860008</v>
+        <v>3666.318704890289</v>
       </c>
       <c r="X14" t="n">
-        <v>2175.591455027755</v>
+        <v>3254.598706058036</v>
       </c>
       <c r="Y14" t="n">
-        <v>2175.591455027755</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M15" t="n">
-        <v>728.2502693850971</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="N15" t="n">
-        <v>1189.334597738979</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1137.62974079602</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C16" t="n">
-        <v>965.6571776749358</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D16" t="n">
-        <v>802.3404048017065</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E16" t="n">
-        <v>636.1321989545601</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F16" t="n">
-        <v>464.2704247291205</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G16" t="n">
-        <v>298.0134550233526</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
-        <v>154.217186531507</v>
+        <v>199.8455131387142</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R16" t="n">
-        <v>2187.823032372085</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="S16" t="n">
-        <v>2017.687984891219</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="T16" t="n">
-        <v>1774.348637117119</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="U16" t="n">
-        <v>1494.164188617424</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="V16" t="n">
-        <v>1212.452721225452</v>
+        <v>2117.183104807232</v>
       </c>
       <c r="W16" t="n">
-        <v>1212.452721225452</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X16" t="n">
-        <v>1212.452721225452</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y16" t="n">
-        <v>1212.452721225452</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="17">
@@ -5513,31 +5515,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
         <v>5010.768376164567</v>
@@ -5555,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>431.8276921262043</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C19" t="n">
-        <v>431.8276921262043</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D19" t="n">
-        <v>268.510919252975</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E19" t="n">
-        <v>102.3027134058285</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5701,22 +5703,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1783.830612633294</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1783.830612633294</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y19" t="n">
-        <v>621.99366083827</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5768,34 +5770,34 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3873.571530742373</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C21" t="n">
-        <v>3756.065627259878</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D21" t="n">
-        <v>3652.225668775163</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E21" t="n">
-        <v>3547.523735048101</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F21" t="n">
-        <v>3453.877904731005</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G21" t="n">
-        <v>3359.824132948609</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H21" t="n">
-        <v>3306.448039710919</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I21" t="n">
-        <v>3306.448039710919</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J21" t="n">
-        <v>3306.448039710919</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="K21" t="n">
-        <v>3306.448039710919</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="L21" t="n">
-        <v>3306.448039710919</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="M21" t="n">
-        <v>4025.820723818557</v>
+        <v>4025.820723818556</v>
       </c>
       <c r="N21" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="O21" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="P21" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q21" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R21" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S21" t="n">
-        <v>5033.811422852682</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T21" t="n">
-        <v>4891.93148715036</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U21" t="n">
-        <v>4707.163291069997</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V21" t="n">
-        <v>4502.190152209264</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W21" t="n">
-        <v>4305.668775042481</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X21" t="n">
-        <v>4142.191428809144</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y21" t="n">
-        <v>4002.498540162436</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4017.903765402536</v>
+        <v>601.2341827829796</v>
       </c>
       <c r="C22" t="n">
-        <v>3845.931202281452</v>
+        <v>429.2616196618956</v>
       </c>
       <c r="D22" t="n">
-        <v>3682.614429408222</v>
+        <v>265.9448467886663</v>
       </c>
       <c r="E22" t="n">
-        <v>3516.406223561076</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F22" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>5115.135670291427</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>5115.135670291427</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>5115.135670291427</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>4951.828802806542</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>4676.976398979054</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="X22" t="n">
-        <v>4434.41250242486</v>
+        <v>1017.742919805303</v>
       </c>
       <c r="Y22" t="n">
-        <v>4208.069734114601</v>
+        <v>791.4001514950452</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,13 +5977,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
@@ -6005,19 +6007,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C24" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D24" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E24" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F24" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G24" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>4025.820723818556</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S24" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T24" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U24" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V24" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W24" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X24" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y24" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4017.903765402536</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C25" t="n">
-        <v>3845.931202281452</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D25" t="n">
-        <v>3682.614429408222</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E25" t="n">
-        <v>3516.406223561076</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335636</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>4676.976398979054</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U25" t="n">
-        <v>4676.976398979054</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V25" t="n">
-        <v>4676.976398979054</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W25" t="n">
-        <v>4676.976398979054</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X25" t="n">
-        <v>4434.41250242486</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y25" t="n">
-        <v>4208.069734114601</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,13 +6214,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6242,19 +6244,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>941.9189991784958</v>
+        <v>437.4812605044974</v>
       </c>
       <c r="C28" t="n">
-        <v>769.9464360574118</v>
+        <v>437.4812605044974</v>
       </c>
       <c r="D28" t="n">
-        <v>606.6296631841825</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6382,10 +6384,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6409,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2176.64156157427</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>1933.30221380017</v>
       </c>
       <c r="U28" t="n">
-        <v>1649.501268272243</v>
+        <v>1653.117765300474</v>
       </c>
       <c r="V28" t="n">
-        <v>1649.501268272243</v>
+        <v>1371.406297908503</v>
       </c>
       <c r="W28" t="n">
-        <v>1374.648864444756</v>
+        <v>1096.553894081016</v>
       </c>
       <c r="X28" t="n">
-        <v>1132.084967890562</v>
+        <v>853.9899975268211</v>
       </c>
       <c r="Y28" t="n">
-        <v>1132.084967890562</v>
+        <v>627.6472292165631</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6479,19 +6481,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4017.903765402536</v>
+        <v>3433.654112255449</v>
       </c>
       <c r="C31" t="n">
-        <v>3845.931202281452</v>
+        <v>3261.681549134365</v>
       </c>
       <c r="D31" t="n">
-        <v>3682.614429408222</v>
+        <v>3200.699416985168</v>
       </c>
       <c r="E31" t="n">
-        <v>3516.406223561076</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="F31" t="n">
-        <v>3344.544449335636</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="G31" t="n">
-        <v>3178.287479629868</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="H31" t="n">
-        <v>3034.491211138023</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P31" t="n">
         <v>4988.135540050665</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R31" t="n">
         <v>5068.0970569786</v>
       </c>
       <c r="S31" t="n">
-        <v>4957.16084747875</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T31" t="n">
-        <v>4957.16084747875</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U31" t="n">
-        <v>4676.976398979054</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V31" t="n">
-        <v>4676.976398979054</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="W31" t="n">
-        <v>4676.976398979054</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="X31" t="n">
-        <v>4434.41250242486</v>
+        <v>3850.162849277773</v>
       </c>
       <c r="Y31" t="n">
-        <v>4208.069734114601</v>
+        <v>3623.820080967515</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,13 +6688,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
@@ -6716,19 +6718,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6783,16 +6785,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>496.5168264363576</v>
+        <v>3158.801708427963</v>
       </c>
       <c r="C34" t="n">
-        <v>412.355951603442</v>
+        <v>2986.829145306879</v>
       </c>
       <c r="D34" t="n">
-        <v>412.355951603442</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="E34" t="n">
-        <v>412.355951603442</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="F34" t="n">
-        <v>412.355951603442</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="G34" t="n">
-        <v>246.0989818976742</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S34" t="n">
-        <v>2235.67712750613</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T34" t="n">
-        <v>1992.33777973203</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U34" t="n">
-        <v>1712.153331232334</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V34" t="n">
-        <v>1430.441863840363</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="W34" t="n">
-        <v>1155.589460012876</v>
+        <v>3817.874342004481</v>
       </c>
       <c r="X34" t="n">
-        <v>913.0255634586812</v>
+        <v>3575.310445450286</v>
       </c>
       <c r="Y34" t="n">
-        <v>686.6827951484232</v>
+        <v>3348.967677140028</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,13 +6925,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6938,34 +6940,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>651.5495334576507</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>1581.174581076927</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7023,7 +7025,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N36" t="n">
         <v>1910.990343986338</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.3984947971121</v>
+        <v>1067.07923602298</v>
       </c>
       <c r="C37" t="n">
-        <v>750.4259316760281</v>
+        <v>895.1066729018962</v>
       </c>
       <c r="D37" t="n">
-        <v>750.4259316760281</v>
+        <v>731.7899000286669</v>
       </c>
       <c r="E37" t="n">
-        <v>584.2177258288816</v>
+        <v>565.5816941815204</v>
       </c>
       <c r="F37" t="n">
-        <v>412.355951603442</v>
+        <v>393.7199199560808</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>227.462950250313</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7093,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7120,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.056897064296</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V37" t="n">
-        <v>1307.345429672325</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W37" t="n">
-        <v>1307.345429672325</v>
+        <v>1726.151869599499</v>
       </c>
       <c r="X37" t="n">
-        <v>1064.78153311813</v>
+        <v>1483.587973045304</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.3984947971121</v>
+        <v>1257.245204735046</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7169,13 +7171,13 @@
         <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058284</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058284</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>817.8110213813275</v>
       </c>
       <c r="L38" t="n">
         <v>1747.436069000604</v>
@@ -7190,19 +7192,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7214,7 +7216,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7251,25 +7253,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>140.1622235167214</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>730.647150085061</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>730.647150085061</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>730.647150085061</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N39" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3730.115685686956</v>
+        <v>3158.801708427963</v>
       </c>
       <c r="C40" t="n">
-        <v>3558.143122565872</v>
+        <v>2986.829145306879</v>
       </c>
       <c r="D40" t="n">
-        <v>3394.826349692642</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="E40" t="n">
-        <v>3228.618143845496</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="F40" t="n">
-        <v>3100.979612584067</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="G40" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H40" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102457</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308294</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602715</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572966</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449001</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128765</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P40" t="n">
         <v>4988.135540050665</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R40" t="n">
-        <v>5115.135670291427</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S40" t="n">
-        <v>4945.000622810562</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T40" t="n">
-        <v>4701.661275036462</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U40" t="n">
-        <v>4421.476826536767</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V40" t="n">
-        <v>4421.476826536767</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="W40" t="n">
-        <v>4146.624422709279</v>
+        <v>3817.874342004481</v>
       </c>
       <c r="X40" t="n">
-        <v>4146.624422709279</v>
+        <v>3575.310445450286</v>
       </c>
       <c r="Y40" t="n">
-        <v>3920.281654399021</v>
+        <v>3348.967677140028</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1734.957971336176</v>
+        <v>2429.413071721397</v>
       </c>
       <c r="C41" t="n">
-        <v>1308.057241349476</v>
+        <v>2002.512341734697</v>
       </c>
       <c r="D41" t="n">
-        <v>884.7646205344768</v>
+        <v>1579.219720919697</v>
       </c>
       <c r="E41" t="n">
-        <v>458.7876806823343</v>
+        <v>1153.242781067554</v>
       </c>
       <c r="F41" t="n">
-        <v>458.7876806823343</v>
+        <v>728.1185992569547</v>
       </c>
       <c r="G41" t="n">
-        <v>54.44861827178296</v>
+        <v>323.7795368464033</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K41" t="n">
-        <v>728.2502693850971</v>
+        <v>815.5852528544892</v>
       </c>
       <c r="L41" t="n">
-        <v>728.2502693850971</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M41" t="n">
-        <v>1402.051920498411</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N41" t="n">
-        <v>2075.853571611725</v>
+        <v>3721.926150405494</v>
       </c>
       <c r="O41" t="n">
-        <v>2604.874578707245</v>
+        <v>3721.926150405494</v>
       </c>
       <c r="P41" t="n">
-        <v>2604.874578707245</v>
+        <v>4430.205429563422</v>
       </c>
       <c r="Q41" t="n">
-        <v>2604.874578707245</v>
+        <v>4886.290909067605</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="S41" t="n">
-        <v>2722.430913589148</v>
+        <v>4899.479949822648</v>
       </c>
       <c r="T41" t="n">
-        <v>2722.430913589148</v>
+        <v>4678.55437886728</v>
       </c>
       <c r="U41" t="n">
-        <v>2560.143605672816</v>
+        <v>4420.199469463692</v>
       </c>
       <c r="V41" t="n">
-        <v>2560.143605672816</v>
+        <v>4062.710054589942</v>
       </c>
       <c r="W41" t="n">
-        <v>2560.143605672816</v>
+        <v>3666.318704890289</v>
       </c>
       <c r="X41" t="n">
-        <v>2560.143605672816</v>
+        <v>3254.598706058036</v>
       </c>
       <c r="Y41" t="n">
-        <v>2154.806335627706</v>
+        <v>2849.261436012927</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>54.44861827178296</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K42" t="n">
-        <v>54.44861827178296</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="L42" t="n">
-        <v>728.2502693850971</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="M42" t="n">
-        <v>728.2502693850971</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="N42" t="n">
-        <v>728.2502693850971</v>
+        <v>1461.089380631451</v>
       </c>
       <c r="O42" t="n">
-        <v>1402.051920498411</v>
+        <v>1461.089380631451</v>
       </c>
       <c r="P42" t="n">
-        <v>1863.136248852293</v>
+        <v>1461.089380631451</v>
       </c>
       <c r="Q42" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1137.62974079602</v>
+        <v>3906.615339060615</v>
       </c>
       <c r="C43" t="n">
-        <v>965.6571776749358</v>
+        <v>3734.642775939531</v>
       </c>
       <c r="D43" t="n">
-        <v>802.3404048017065</v>
+        <v>3571.326003066302</v>
       </c>
       <c r="E43" t="n">
-        <v>636.1321989545601</v>
+        <v>3405.117797219156</v>
       </c>
       <c r="F43" t="n">
-        <v>464.2704247291205</v>
+        <v>3233.256022993716</v>
       </c>
       <c r="G43" t="n">
-        <v>298.0134550233526</v>
+        <v>3066.999053287948</v>
       </c>
       <c r="H43" t="n">
-        <v>154.217186531507</v>
+        <v>2923.202784796103</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>2823.434216536379</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>2880.925544760537</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>3107.453145966374</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>3462.142467260795</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>3853.328262231046</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>4230.819773107081</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>4586.247901786845</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>4876.847113708745</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="R43" t="n">
-        <v>2187.823032372085</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="S43" t="n">
-        <v>2017.687984891219</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="T43" t="n">
-        <v>2017.687984891219</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="U43" t="n">
-        <v>2017.687984891219</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="V43" t="n">
-        <v>1735.976517499248</v>
+        <v>4840.540376464622</v>
       </c>
       <c r="W43" t="n">
-        <v>1606.536405660473</v>
+        <v>4565.687972637134</v>
       </c>
       <c r="X43" t="n">
-        <v>1363.972509106278</v>
+        <v>4323.12407608294</v>
       </c>
       <c r="Y43" t="n">
-        <v>1137.62974079602</v>
+        <v>4096.781307772681</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1089.133930720603</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C44" t="n">
-        <v>662.233200733903</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D44" t="n">
-        <v>238.9405799189033</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E44" t="n">
-        <v>238.9405799189033</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F44" t="n">
-        <v>54.44861827178296</v>
+        <v>802.2843858155068</v>
       </c>
       <c r="G44" t="n">
-        <v>54.44861827178296</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>54.44861827178296</v>
+        <v>462.6804036958857</v>
       </c>
       <c r="K44" t="n">
-        <v>54.44861827178296</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>583.4696253673028</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>1257.271276480617</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N44" t="n">
-        <v>1931.072927593931</v>
+        <v>2876.781500254682</v>
       </c>
       <c r="O44" t="n">
-        <v>2604.874578707245</v>
+        <v>3721.926150405494</v>
       </c>
       <c r="P44" t="n">
-        <v>2604.874578707245</v>
+        <v>4430.205429563422</v>
       </c>
       <c r="Q44" t="n">
-        <v>2604.874578707245</v>
+        <v>4886.290909067605</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.430913589148</v>
+        <v>4973.6457363812</v>
       </c>
       <c r="T44" t="n">
-        <v>2722.430913589148</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U44" t="n">
-        <v>2722.430913589148</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V44" t="n">
-        <v>2722.430913589148</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W44" t="n">
-        <v>2326.039563889495</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X44" t="n">
-        <v>1914.319565057242</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y44" t="n">
-        <v>1508.982295012133</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E45" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F45" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>326.146107551374</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>916.6310341197136</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L45" t="n">
-        <v>916.6310341197136</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M45" t="n">
-        <v>916.6310341197136</v>
+        <v>1156.063482855035</v>
       </c>
       <c r="N45" t="n">
-        <v>916.6310341197136</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O45" t="n">
-        <v>916.6310341197136</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P45" t="n">
-        <v>1398.990771989513</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q45" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1037.861172536296</v>
+        <v>541.3296712223462</v>
       </c>
       <c r="C46" t="n">
-        <v>865.8886094152118</v>
+        <v>435.255491977659</v>
       </c>
       <c r="D46" t="n">
-        <v>702.5718365419825</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E46" t="n">
-        <v>536.363630694836</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F46" t="n">
-        <v>364.5018564693964</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G46" t="n">
-        <v>198.2448867636286</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H46" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>693.1568689961989</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q46" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R46" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="S46" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="T46" t="n">
-        <v>2234.861645684911</v>
+        <v>2037.150624518019</v>
       </c>
       <c r="U46" t="n">
-        <v>2234.861645684911</v>
+        <v>1756.966176018323</v>
       </c>
       <c r="V46" t="n">
-        <v>1971.786209940301</v>
+        <v>1475.254708626352</v>
       </c>
       <c r="W46" t="n">
-        <v>1696.933806112814</v>
+        <v>1200.402304798865</v>
       </c>
       <c r="X46" t="n">
-        <v>1454.369909558619</v>
+        <v>957.8384082446697</v>
       </c>
       <c r="Y46" t="n">
-        <v>1228.027141248361</v>
+        <v>731.4956399344118</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>718.9197708299099</v>
+        <v>182.59152146421</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>229.6956455346879</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O2" t="n">
-        <v>717.9986877533111</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>718.1830902075183</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>703.1228151115166</v>
+        <v>462.5747547263938</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
@@ -8073,13 +8075,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>608.9168508591735</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,28 +8218,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>569.5185628754297</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M5" t="n">
-        <v>718.0389912967188</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N5" t="n">
-        <v>717.8873512317331</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O5" t="n">
-        <v>717.9986877533111</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>111.2476119024906</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,25 +8297,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>463.1564485244922</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P6" t="n">
-        <v>509.0028996591719</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8456,25 +8458,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>718.9197708299099</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>718.0389912967188</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>717.9986877533111</v>
+        <v>204.8788014195786</v>
       </c>
       <c r="P8" t="n">
-        <v>205.6738954250035</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8531,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>703.1228151115166</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>488.9136355342238</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>379.9589183367957</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,25 +8692,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>203.8631344095814</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>718.9197708299099</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>717.8873512317331</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>468.2166828561564</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8772,19 +8774,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O12" t="n">
-        <v>488.9136355342237</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>702.3785696021157</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>361.6512950926265</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>718.0389912967188</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>717.8873512317331</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>425.5892202827113</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9012,13 +9014,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>703.704508909615</v>
+        <v>749.7358553685298</v>
       </c>
       <c r="N15" t="n">
-        <v>487.0847740255431</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O15" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9179,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>100.0581876036193</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9416,7 +9418,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q20" t="n">
         <v>36.12467460459804</v>
@@ -9653,7 +9655,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9723,7 +9725,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N24" t="n">
         <v>1121.661155963915</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>466.324307620685</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10127,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10364,7 +10366,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10431,19 +10433,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>227.574314522856</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10586,7 +10588,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239227</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10601,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10671,10 +10673,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10838,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -10899,28 +10901,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>58.8530437382756</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11060,25 +11062,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>718.0389912967188</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>717.8873512317331</v>
+        <v>1019.531894059365</v>
       </c>
       <c r="O41" t="n">
-        <v>571.7556129878624</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11136,28 +11138,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>487.5125870168303</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>474.944204781957</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>572.6766960644611</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>718.0389912967188</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>717.8873512317331</v>
+        <v>814.0147147172949</v>
       </c>
       <c r="O44" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11373,28 +11375,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>509.0028996591719</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23258,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>107.0496666414545</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>107.97203123693</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>110.0981677402027</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>258.6591710708075</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>107.9720312369302</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>114.1895583998067</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080138</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>60.1185983045572</v>
       </c>
       <c r="Y19" t="n">
-        <v>104.3914540390047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>2.540411739665615</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>117.2205539080147</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>22.1301998828649</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24649,16 +24651,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>63.42025955381636</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>59.83992749586793</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>101.3112943167917</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>58.60684960120449</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>86.93357140528674</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>110.098167740202</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -25087,10 +25089,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>18.44967133088754</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25360,25 +25362,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>83.12013268934766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>110.098167740202</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>43.78101053437017</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25637,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>73.42412869296655</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>95.10692547238281</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -25843,10 +25845,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>117.2205539080147</v>
       </c>
       <c r="W43" t="n">
-        <v>143.9581690688242</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25871,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>238.2258979618446</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>73.42412869296653</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26023,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>65.23940003763285</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -26074,13 +26076,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>18.44967133088738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>650289.6615269092</v>
+        <v>649309.5980490006</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>650289.6615269092</v>
+        <v>649309.5980490006</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>650289.6615269092</v>
+        <v>649309.5980490006</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>424574.1974781766</v>
+        <v>622876.2988354322</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>424574.1974781766</v>
+        <v>622876.2988354322</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>632549.5568491762</v>
+        <v>632549.5568491761</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>632549.5568491761</v>
+        <v>632549.5568491762</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>632549.5568491761</v>
+        <v>632549.5568491762</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>632549.5568491761</v>
+        <v>632549.5568491762</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>632549.5568491761</v>
+        <v>632549.5568491762</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>632549.5568491759</v>
+        <v>632549.5568491761</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>424574.1974781766</v>
+        <v>622876.2988354322</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>424574.1974781767</v>
+        <v>622876.2988354322</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>378587.734207256</v>
+        <v>378587.7342072561</v>
       </c>
       <c r="C2" t="n">
         <v>378587.7342072561</v>
       </c>
       <c r="D2" t="n">
-        <v>378587.7342072561</v>
+        <v>378587.7342072559</v>
       </c>
       <c r="E2" t="n">
-        <v>245210.4145420958</v>
+        <v>359733.2891431421</v>
       </c>
       <c r="F2" t="n">
-        <v>245210.4145420957</v>
+        <v>359733.2891431419</v>
       </c>
       <c r="G2" t="n">
-        <v>365319.7620393408</v>
+        <v>365319.7620393407</v>
       </c>
       <c r="H2" t="n">
         <v>365319.7620393408</v>
@@ -26338,22 +26340,22 @@
         <v>365319.7620393409</v>
       </c>
       <c r="K2" t="n">
+        <v>365319.7620393407</v>
+      </c>
+      <c r="L2" t="n">
         <v>365319.7620393406</v>
       </c>
-      <c r="L2" t="n">
-        <v>365319.7620393408</v>
-      </c>
       <c r="M2" t="n">
-        <v>365319.7620393409</v>
+        <v>365319.7620393407</v>
       </c>
       <c r="N2" t="n">
-        <v>365319.7620393406</v>
+        <v>365319.7620393407</v>
       </c>
       <c r="O2" t="n">
-        <v>245210.4145420959</v>
+        <v>359733.2891431421</v>
       </c>
       <c r="P2" t="n">
-        <v>245210.4145420958</v>
+        <v>359733.2891431421</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>207432.2876165612</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>7625.622083481228</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>173130.4912056398</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127239.0340695812</v>
+        <v>148130.4125690142</v>
       </c>
       <c r="C4" t="n">
-        <v>127239.0340695812</v>
+        <v>148130.4125690142</v>
       </c>
       <c r="D4" t="n">
-        <v>127239.0340695812</v>
+        <v>148130.4125690142</v>
       </c>
       <c r="E4" t="n">
-        <v>10119.98377357185</v>
+        <v>14883.79308177073</v>
       </c>
       <c r="F4" t="n">
-        <v>10119.98377357185</v>
+        <v>14883.79308177074</v>
       </c>
       <c r="G4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="H4" t="n">
         <v>15116.17365792743</v>
@@ -26439,7 +26441,7 @@
         <v>15116.17365792743</v>
       </c>
       <c r="J4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="K4" t="n">
         <v>15116.17365792743</v>
@@ -26451,13 +26453,13 @@
         <v>15116.17365792743</v>
       </c>
       <c r="N4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="O4" t="n">
-        <v>10119.98377357185</v>
+        <v>14883.79308177073</v>
       </c>
       <c r="P4" t="n">
-        <v>10119.98377357185</v>
+        <v>14883.79308177073</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.4781080325</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.4781080325</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.4781080325</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.4781080325</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-51747.15351256424</v>
+        <v>-23393.66281392342</v>
       </c>
       <c r="C6" t="n">
-        <v>176340.1502511199</v>
+        <v>163011.0706008138</v>
       </c>
       <c r="D6" t="n">
-        <v>176340.1502511198</v>
+        <v>163011.0706008136</v>
       </c>
       <c r="E6" t="n">
-        <v>193709.4808819689</v>
+        <v>61358.73033677765</v>
       </c>
       <c r="F6" t="n">
-        <v>193709.4808819688</v>
+        <v>268791.0179533387</v>
       </c>
       <c r="G6" t="n">
-        <v>108502.4053827976</v>
+        <v>264827.9041095024</v>
       </c>
       <c r="H6" t="n">
         <v>272453.5261929837</v>
@@ -26543,25 +26545,25 @@
         <v>272453.5261929836</v>
       </c>
       <c r="J6" t="n">
-        <v>94376.59770420396</v>
+        <v>126919.8562581673</v>
       </c>
       <c r="K6" t="n">
+        <v>272453.5261929836</v>
+      </c>
+      <c r="L6" t="n">
         <v>272453.5261929835</v>
       </c>
-      <c r="L6" t="n">
-        <v>272453.5261929837</v>
-      </c>
       <c r="M6" t="n">
-        <v>272453.5261929837</v>
+        <v>99323.03498734388</v>
       </c>
       <c r="N6" t="n">
-        <v>272453.5261929835</v>
+        <v>272453.5261929836</v>
       </c>
       <c r="O6" t="n">
-        <v>193709.480881969</v>
+        <v>268791.0179533389</v>
       </c>
       <c r="P6" t="n">
-        <v>193709.4808819689</v>
+        <v>268791.0179533389</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987377</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987377</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987377</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987377</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>694.7339978717828</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>27.82210658547979</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.7339978717828</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.7339978717828</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>27.82210658547979</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>114.2234164377605</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27391,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>331.3947386960825</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27549,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>65.46263412532764</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>97.79030578846982</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,13 +27621,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>260.2387402019114</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>385.0527817684127</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,7 +27678,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27774,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>34.44462915357192</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>342.9323154271056</v>
       </c>
       <c r="E8" t="n">
-        <v>376.8468820985834</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27873,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27906,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,16 +28016,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>153.473969538659</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>680.607728397287</v>
+        <v>144.2794790315871</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>192.4160227002418</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,19 +34774,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>680.607728397287</v>
+        <v>440.0596680121643</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34793,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>587.1460096543448</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>533.7539620806203</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M5" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N5" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O5" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>73.67225009225932</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>440.0596680121643</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P6" t="n">
-        <v>487.2320584543432</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,25 +35178,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>680.607728397287</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="P8" t="n">
-        <v>168.0985336147722</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>465.7417458120016</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>357.2118800478172</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35410,25 +35412,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>168.0985336147721</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>680.607728397287</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>430.6413210459251</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35492,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O12" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>325.8866942978172</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>680.607728397287</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>680.607728397287</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>388.01385847248</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35732,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>680.607728397287</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7417458120015</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35899,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>62.48282579338804</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36136,7 +36138,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36373,7 +36375,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36443,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N24" t="n">
         <v>1100.318127750374</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>428.7489458104537</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36847,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -37084,7 +37086,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37151,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291133</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37321,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37391,10 +37393,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37558,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>38.24192940494226</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,25 +37782,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>680.607728397287</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>680.607728397287</v>
+        <v>982.2522712249191</v>
       </c>
       <c r="O41" t="n">
-        <v>534.3646536318383</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>465.7417458120016</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>452.1971664929785</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>534.3646536318382</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>680.607728397287</v>
+        <v>776.7350918828488</v>
       </c>
       <c r="O44" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>487.2320584543432</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1520901.168756468</v>
+        <v>1520183.17864161</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760716</v>
+        <v>698313.6830760739</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7334355.544265411</v>
+        <v>7334355.544265409</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
@@ -673,13 +673,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>68.90093309036328</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>57.0676845728945</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -825,16 +825,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>25.13775189891358</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>211.9199698893711</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -898,7 +898,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
@@ -907,13 +907,13 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>35.82015822408102</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>16.7339023052905</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>161.6737988100371</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1135,10 +1135,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>76.1273791797441</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>144.0581823527386</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1296,10 +1296,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>51.58543740429392</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>130.807786556157</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -1387,7 +1387,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>186.9176635037755</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1435,7 +1435,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>299.6307676069974</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1533,13 +1533,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>51.58543740429432</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>221.7526631568922</v>
       </c>
     </row>
     <row r="14">
@@ -1675,7 +1675,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>293.3118661077283</v>
+        <v>293.3118661077256</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>17.96372581708179</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -1782,10 +1782,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100375</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1897,7 +1897,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -1912,7 +1912,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446589</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>152.0898487279629</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>180.0196592840957</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2137,7 +2137,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095521</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -2244,13 +2244,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>160.3366336391605</v>
       </c>
       <c r="E22" t="n">
-        <v>162.0057120490094</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2481,7 +2481,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>1.561046368149619</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -2493,7 +2493,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>154.8833258811978</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2715,10 +2715,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>105.0134374522401</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2955,13 +2955,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>60.37231082770526</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3012,7 +3012,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3192,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>51.58543740429501</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>159.3990729342354</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3441,10 +3441,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>123.9086344760396</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3663,10 +3663,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>123.0673923170405</v>
       </c>
       <c r="D40" t="n">
-        <v>51.58543740429501</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>221.465566047739</v>
+        <v>221.4655660477363</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>161.6737988100367</v>
+        <v>156.3950745845503</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3994,7 +3994,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>221.4655660477363</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>29.89949249262446</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -4137,16 +4137,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>105.0134374522403</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>167.8164790129221</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>234.12485472008</v>
+        <v>533.9701437626245</v>
       </c>
       <c r="C2" t="n">
-        <v>211.2645287737841</v>
+        <v>511.1098178163287</v>
       </c>
       <c r="D2" t="n">
-        <v>192.0123119991885</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E2" t="n">
-        <v>170.0757761874501</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F2" t="n">
-        <v>148.9919984172544</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
         <v>407.101683866143</v>
@@ -4336,46 +4336,46 @@
         <v>407.101683866143</v>
       </c>
       <c r="L2" t="n">
-        <v>549.9383681074142</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M2" t="n">
-        <v>549.9383681074142</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N2" t="n">
-        <v>1100.603903091852</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O2" t="n">
-        <v>1100.603903091852</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.26943807629</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>1867.421837588626</v>
+        <v>2167.26712663117</v>
       </c>
       <c r="W2" t="n">
-        <v>1471.030487888972</v>
+        <v>1770.875776931517</v>
       </c>
       <c r="X2" t="n">
-        <v>1059.31048905672</v>
+        <v>1359.155778099264</v>
       </c>
       <c r="Y2" t="n">
-        <v>653.97321901161</v>
+        <v>953.8185080541546</v>
       </c>
     </row>
     <row r="3">
@@ -4397,37 +4397,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L3" t="n">
-        <v>751.8547856608812</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M3" t="n">
-        <v>1302.520320645319</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N3" t="n">
-        <v>1302.520320645319</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O3" t="n">
-        <v>1302.520320645319</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q3" t="n">
         <v>1853.185855629757</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>795.21417202057</v>
+        <v>983.8830790816388</v>
       </c>
       <c r="C4" t="n">
-        <v>623.241608899486</v>
+        <v>811.9105159605548</v>
       </c>
       <c r="D4" t="n">
-        <v>459.9248360262567</v>
+        <v>648.5937430873255</v>
       </c>
       <c r="E4" t="n">
-        <v>459.9248360262567</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F4" t="n">
-        <v>288.0630618008171</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008171</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089715</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462376</v>
+        <v>2199.519583877615</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462376</v>
+        <v>2199.519583877615</v>
       </c>
       <c r="T4" t="n">
-        <v>2224.911252462376</v>
+        <v>2199.519583877615</v>
       </c>
       <c r="U4" t="n">
-        <v>2010.850676816547</v>
+        <v>2199.519583877615</v>
       </c>
       <c r="V4" t="n">
-        <v>1729.139209424575</v>
+        <v>1917.808116485644</v>
       </c>
       <c r="W4" t="n">
-        <v>1454.286805597088</v>
+        <v>1642.955712658157</v>
       </c>
       <c r="X4" t="n">
-        <v>1211.722909042894</v>
+        <v>1400.391816103962</v>
       </c>
       <c r="Y4" t="n">
-        <v>985.3801407326357</v>
+        <v>1174.049047793704</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1392.046023333888</v>
+        <v>1270.775797585523</v>
       </c>
       <c r="C5" t="n">
-        <v>965.145293347188</v>
+        <v>1247.915471639227</v>
       </c>
       <c r="D5" t="n">
-        <v>541.8526725321883</v>
+        <v>824.622850824227</v>
       </c>
       <c r="E5" t="n">
-        <v>519.9161367204499</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F5" t="n">
-        <v>483.7341587163277</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
         <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>572.9146475090616</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>1123.5801824935</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M5" t="n">
-        <v>1674.245717477938</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N5" t="n">
-        <v>2224.911252462376</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O5" t="n">
-        <v>2224.911252462376</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462376</v>
+        <v>2103.641026714011</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462376</v>
+        <v>2103.641026714011</v>
       </c>
       <c r="X5" t="n">
-        <v>2217.231657670528</v>
+        <v>1691.921027881758</v>
       </c>
       <c r="Y5" t="n">
-        <v>1811.894387625418</v>
+        <v>1690.624161877053</v>
       </c>
     </row>
     <row r="6">
@@ -4634,34 +4634,34 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>316.1957143288386</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M6" t="n">
-        <v>751.8547856608812</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N6" t="n">
-        <v>751.8547856608812</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
         <v>1853.185855629757</v>
@@ -4722,7 +4722,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
         <v>101.9895532734055</v>
@@ -4755,10 +4755,10 @@
         <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V7" t="n">
         <v>2061.60438497749</v>
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>591.614269593831</v>
+        <v>129.9297397222204</v>
       </c>
       <c r="C8" t="n">
-        <v>164.7135396071311</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D8" t="n">
         <v>87.81719700132894</v>
@@ -4804,19 +4804,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>1508.432753835019</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>2059.098288819458</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O8" t="n">
         <v>2224.911252462377</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>1975.0306428277</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1716.675733424112</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462377</v>
+        <v>1359.186318550362</v>
       </c>
       <c r="W8" t="n">
-        <v>1828.519902762723</v>
+        <v>962.7949688507088</v>
       </c>
       <c r="X8" t="n">
-        <v>1416.799903930471</v>
+        <v>955.1153740588601</v>
       </c>
       <c r="Y8" t="n">
-        <v>1011.462633885361</v>
+        <v>549.7781040137504</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="L9" t="n">
-        <v>866.8612493132769</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M9" t="n">
-        <v>866.8612493132769</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N9" t="n">
-        <v>866.8612493132769</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O9" t="n">
-        <v>1417.526784297715</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
-        <v>1417.526784297715</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5772905989112</v>
+        <v>511.9166383730123</v>
       </c>
       <c r="C10" t="n">
-        <v>96.60472747782725</v>
+        <v>339.9440752519283</v>
       </c>
       <c r="D10" t="n">
-        <v>44.49822504924753</v>
+        <v>176.627302378699</v>
       </c>
       <c r="E10" t="n">
         <v>44.49822504924753</v>
@@ -4959,55 +4959,55 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924814</v>
       </c>
       <c r="J10" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K10" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L10" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M10" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N10" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O10" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P10" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q10" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>1727.553143168989</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1445.841675777018</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1170.989271949531</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212348</v>
+        <v>928.4253753953359</v>
       </c>
       <c r="Y10" t="n">
-        <v>458.7432593109769</v>
+        <v>702.0826070850779</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2429.413071721397</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C11" t="n">
-        <v>2002.512341734697</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>1579.219720919697</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>1153.242781067554</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>728.1185992569547</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>323.7795368464033</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
         <v>134.9738161355189</v>
@@ -5041,52 +5041,52 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>462.6804036958857</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
         <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1178.188711671385</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.474813090443</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N11" t="n">
-        <v>3158.725871577144</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="O11" t="n">
-        <v>4003.870521727956</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P11" t="n">
-        <v>4430.205429563422</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q11" t="n">
-        <v>4886.290909067605</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R11" t="n">
-        <v>5003.847243949507</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>4899.479949822648</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>4678.55437886728</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>4420.199469463692</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>4062.710054589942</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>3666.318704890289</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>3254.598706058036</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y11" t="n">
-        <v>2849.261436012927</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="12">
@@ -5102,10 +5102,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
         <v>247.5068098990765</v>
@@ -5117,31 +5117,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K12" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L12" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M12" t="n">
-        <v>1156.063482855035</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N12" t="n">
-        <v>1908.7645754595</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O12" t="n">
-        <v>1908.7645754595</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P12" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q12" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R12" t="n">
         <v>1908.7645754595</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>324.1560104286543</v>
+        <v>543.6798504852377</v>
       </c>
       <c r="C13" t="n">
-        <v>152.1834473075703</v>
+        <v>371.7072873641537</v>
       </c>
       <c r="D13" t="n">
-        <v>100.0769448789901</v>
+        <v>371.7072873641537</v>
       </c>
       <c r="E13" t="n">
-        <v>100.0769448789901</v>
+        <v>371.7072873641537</v>
       </c>
       <c r="F13" t="n">
-        <v>100.0769448789901</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="G13" t="n">
-        <v>100.0769448789901</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="H13" t="n">
-        <v>100.0769448789901</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
         <v>1129.970990573657</v>
@@ -5217,34 +5217,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2233.451358979292</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2063.316311498427</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T13" t="n">
-        <v>1819.976963724327</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U13" t="n">
-        <v>1539.792515224631</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V13" t="n">
-        <v>1258.08104783266</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W13" t="n">
-        <v>983.2286440051728</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X13" t="n">
-        <v>740.6647474509779</v>
+        <v>957.8384082446693</v>
       </c>
       <c r="Y13" t="n">
-        <v>514.3219791407199</v>
+        <v>733.8458191973034</v>
       </c>
     </row>
     <row r="14">
@@ -5278,49 +5278,49 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>422.7047722338292</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1352.329819853106</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>2356.615921272164</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N14" t="n">
-        <v>3332.866979758865</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O14" t="n">
-        <v>4178.011629909677</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P14" t="n">
-        <v>4886.290909067605</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>4886.290909067605</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>5003.847243949507</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>4899.479949822648</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>4678.55437886728</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>4420.199469463692</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>4062.710054589942</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>3666.318704890289</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>3254.598706058036</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
         <v>2958.324093828008</v>
@@ -5339,10 +5339,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
         <v>247.5068098990765</v>
@@ -5366,19 +5366,19 @@
         <v>100.0769448789901</v>
       </c>
       <c r="M15" t="n">
-        <v>819.4496289866299</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N15" t="n">
-        <v>1908.7645754595</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="O15" t="n">
-        <v>1908.7645754595</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="P15" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q15" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R15" t="n">
         <v>1908.7645754595</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1183.258067403227</v>
+        <v>939.6932306516574</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.285504282143</v>
+        <v>767.7206675305733</v>
       </c>
       <c r="D16" t="n">
-        <v>847.9687314089136</v>
+        <v>604.403894657344</v>
       </c>
       <c r="E16" t="n">
-        <v>681.7605255617672</v>
+        <v>438.1956888101976</v>
       </c>
       <c r="F16" t="n">
-        <v>509.8987513363276</v>
+        <v>266.333914584758</v>
       </c>
       <c r="G16" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H16" t="n">
-        <v>199.8455131387142</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I16" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
         <v>1129.970990573657</v>
@@ -5454,34 +5454,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T16" t="n">
-        <v>2280.489972292119</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U16" t="n">
-        <v>2280.489972292119</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V16" t="n">
-        <v>2117.183104807232</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W16" t="n">
-        <v>1842.330700979745</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X16" t="n">
-        <v>1599.766804425551</v>
+        <v>957.8384082446693</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.424036115293</v>
+        <v>957.8384082446693</v>
       </c>
     </row>
     <row r="17">
@@ -5515,34 +5515,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291426</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
         <v>4789.842805209199</v>
@@ -5557,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>599.7631605785773</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808981</v>
+        <v>427.7905974574933</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2065.542080025265</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>2065.542080025265</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1783.830612633294</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1783.830612633294</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>789.9291292906429</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,49 +5740,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>3306.448039710918</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>3306.448039710918</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>3306.448039710918</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>3306.448039710918</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M21" t="n">
-        <v>4025.820723818556</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N21" t="n">
-        <v>5115.135670291426</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O21" t="n">
-        <v>5115.135670291426</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P21" t="n">
-        <v>5115.135670291426</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>5115.135670291426</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>601.2341827829796</v>
+        <v>608.0932463474637</v>
       </c>
       <c r="C22" t="n">
-        <v>429.2616196618956</v>
+        <v>436.1206832263797</v>
       </c>
       <c r="D22" t="n">
-        <v>265.9448467886663</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
         <v>102.3027134058285</v>
@@ -5910,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5946,16 +5946,16 @@
         <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W22" t="n">
-        <v>1260.306816359498</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X22" t="n">
-        <v>1017.742919805303</v>
+        <v>1024.601983369787</v>
       </c>
       <c r="Y22" t="n">
-        <v>791.4001514950452</v>
+        <v>798.2592150595294</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>3306.448039710918</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>3306.448039710918</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>3306.448039710918</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>3306.448039710918</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>4025.820723818556</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>5115.135670291426</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>5115.135670291426</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P24" t="n">
-        <v>5115.135670291426</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>5115.135670291426</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>879.947609078273</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808981</v>
+        <v>707.975045957189</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357521</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886056</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F25" t="n">
-        <v>512.124519863166</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H25" t="n">
         <v>202.0712816655526</v>
@@ -6147,10 +6147,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V25" t="n">
-        <v>2001.004273426986</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W25" t="n">
-        <v>1844.556469506584</v>
+        <v>1312.677474344533</v>
       </c>
       <c r="X25" t="n">
-        <v>1601.992572952389</v>
+        <v>1070.113577790339</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>1070.113577790339</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,13 +6214,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6238,25 +6238,25 @@
         <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>437.4812605044974</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>437.4812605044974</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
         <v>274.1644876312681</v>
@@ -6384,10 +6384,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2176.64156157427</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1933.30221380017</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1653.117765300474</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1371.406297908503</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1096.553894081016</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>853.9899975268211</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>627.6472292165631</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6481,19 +6481,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3433.654112255449</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>3261.681549134365</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>3200.699416985168</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>3034.491211138022</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>4897.962009497734</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>4654.622661723634</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>4374.438213223939</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>4092.726745831968</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>4092.726745831968</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>3850.162849277773</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>3623.820080967515</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3158.801708427963</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>2986.829145306879</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>2934.722642878298</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>2934.722642878298</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4897.962009497734</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>4654.622661723634</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>4374.438213223939</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>4092.726745831968</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>3817.874342004481</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>3575.310445450286</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>3348.967677140028</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,13 +6925,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6940,34 +6940,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>651.5495334576507</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1581.174581076927</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>3561.711740982686</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.856391133499</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1067.07923602298</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>895.1066729018962</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D37" t="n">
-        <v>731.7899000286669</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E37" t="n">
-        <v>565.5816941815204</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F37" t="n">
-        <v>393.7199199560808</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
-        <v>227.462950250313</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>2282.715740818957</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>2001.004273426986</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="W37" t="n">
-        <v>1726.151869599499</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="X37" t="n">
-        <v>1483.587973045304</v>
+        <v>1346.493000510101</v>
       </c>
       <c r="Y37" t="n">
-        <v>1257.245204735046</v>
+        <v>1346.493000510101</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7171,40 +7171,40 @@
         <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
-        <v>102.3027134058284</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058284</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813275</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7216,7 +7216,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3158.801708427963</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C40" t="n">
-        <v>2986.829145306879</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="D40" t="n">
-        <v>2934.722642878298</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="E40" t="n">
-        <v>2934.722642878298</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F40" t="n">
-        <v>2934.722642878298</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G40" t="n">
-        <v>2934.722642878298</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H40" t="n">
-        <v>2934.722642878298</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>4897.962009497734</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>4654.622661723634</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>4374.438213223939</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>4092.726745831968</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W40" t="n">
-        <v>3817.874342004481</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X40" t="n">
-        <v>3575.310445450286</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y40" t="n">
-        <v>3348.967677140028</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2429.413071721397</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C41" t="n">
-        <v>2002.512341734697</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D41" t="n">
-        <v>1579.219720919697</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E41" t="n">
-        <v>1153.242781067554</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F41" t="n">
-        <v>728.1185992569547</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G41" t="n">
-        <v>323.7795368464033</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H41" t="n">
         <v>100.0769448789901</v>
@@ -7411,52 +7411,52 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>815.5852528544892</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>2749.496401892824</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N41" t="n">
-        <v>3721.926150405494</v>
+        <v>3332.866979758862</v>
       </c>
       <c r="O41" t="n">
-        <v>3721.926150405494</v>
+        <v>4178.011629909674</v>
       </c>
       <c r="P41" t="n">
-        <v>4430.205429563422</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="Q41" t="n">
-        <v>4886.290909067605</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
-        <v>5003.847243949507</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>4899.479949822648</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>4678.55437886728</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>4420.199469463692</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>4062.710054589942</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W41" t="n">
-        <v>3666.318704890289</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X41" t="n">
-        <v>3254.598706058036</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y41" t="n">
-        <v>2849.261436012927</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="42">
@@ -7472,10 +7472,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
         <v>247.5068098990765</v>
@@ -7487,31 +7487,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J42" t="n">
-        <v>371.7744341585812</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K42" t="n">
-        <v>371.7744341585812</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L42" t="n">
-        <v>371.7744341585812</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M42" t="n">
-        <v>371.7744341585812</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N42" t="n">
-        <v>1461.089380631451</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O42" t="n">
-        <v>1461.089380631451</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P42" t="n">
-        <v>1461.089380631451</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q42" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R42" t="n">
         <v>1908.7645754595</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3906.615339060615</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C43" t="n">
-        <v>3734.642775939531</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D43" t="n">
-        <v>3571.326003066302</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E43" t="n">
-        <v>3405.117797219156</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F43" t="n">
-        <v>3233.256022993716</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G43" t="n">
-        <v>3066.999053287948</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H43" t="n">
-        <v>2923.202784796103</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I43" t="n">
-        <v>2823.434216536379</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>2880.925544760537</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>3107.453145966374</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>3462.142467260795</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>3853.328262231046</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>4230.819773107081</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>4586.247901786845</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>4876.847113708745</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>5003.847243949507</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>5003.847243949507</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>5003.847243949507</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T43" t="n">
-        <v>5003.847243949507</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="U43" t="n">
-        <v>5003.847243949507</v>
+        <v>2000.305523792422</v>
       </c>
       <c r="V43" t="n">
-        <v>4840.540376464622</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="W43" t="n">
-        <v>4565.687972637134</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X43" t="n">
-        <v>4323.12407608294</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y43" t="n">
-        <v>4096.781307772681</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2503.578858279949</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C44" t="n">
-        <v>2076.678128293249</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D44" t="n">
-        <v>1653.385507478249</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E44" t="n">
-        <v>1227.408567626107</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F44" t="n">
-        <v>802.2843858155068</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G44" t="n">
-        <v>397.9453234049553</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H44" t="n">
         <v>100.0769448789901</v>
@@ -7648,7 +7648,7 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>462.6804036958857</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
         <v>1178.188711671385</v>
@@ -7657,43 +7657,43 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>2107.813759290661</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N44" t="n">
-        <v>2876.781500254682</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O44" t="n">
-        <v>3721.926150405494</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P44" t="n">
-        <v>4430.205429563422</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q44" t="n">
-        <v>4886.290909067605</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R44" t="n">
-        <v>5003.847243949507</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>4973.6457363812</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>4752.720165425832</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>4494.365256022244</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>4136.875841148494</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W44" t="n">
-        <v>3740.484491448841</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X44" t="n">
-        <v>3328.764492616588</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y44" t="n">
-        <v>2923.427222571479</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="45">
@@ -7709,10 +7709,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
         <v>247.5068098990765</v>
@@ -7724,31 +7724,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J45" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K45" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L45" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M45" t="n">
-        <v>1156.063482855035</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N45" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="O45" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="P45" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q45" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R45" t="n">
         <v>1908.7645754595</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>541.3296712223462</v>
+        <v>541.3296712223457</v>
       </c>
       <c r="C46" t="n">
-        <v>435.255491977659</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="D46" t="n">
-        <v>271.9387191044297</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="E46" t="n">
-        <v>271.9387191044297</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="F46" t="n">
-        <v>100.0769448789901</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="G46" t="n">
-        <v>100.0769448789901</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="H46" t="n">
-        <v>100.0769448789901</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I46" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
         <v>1129.970990573657</v>
@@ -7824,34 +7824,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T46" t="n">
-        <v>2037.150624518019</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U46" t="n">
-        <v>1756.966176018323</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V46" t="n">
-        <v>1475.254708626352</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W46" t="n">
-        <v>1200.402304798865</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X46" t="n">
-        <v>957.8384082446697</v>
+        <v>957.8384082446693</v>
       </c>
       <c r="Y46" t="n">
-        <v>731.4956399344118</v>
+        <v>731.4956399344113</v>
       </c>
     </row>
   </sheetData>
@@ -7984,25 +7984,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>182.59152146421</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>300.4545145390017</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500401</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258253</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,28 +8057,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>462.5747547263938</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.324593627922</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204227</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>181.0208015487716</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8218,28 +8218,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>569.5185628754297</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>594.5398555482169</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150258</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500401</v>
+        <v>547.8252218830994</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,28 +8291,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>463.1564485244922</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378162</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204227</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
@@ -8464,10 +8464,10 @@
         <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>571.0335849150666</v>
       </c>
       <c r="O8" t="n">
-        <v>204.8788014195786</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>173.266988396334</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>379.9589183367957</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,25 +8695,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>932.7584873252742</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>468.2166828561564</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>361.6512950926265</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -8947,7 +8947,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9014,22 +9014,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>749.7358553685298</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9181,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>397.6042905607445</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,22 +9409,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9500,10 +9500,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9886,13 +9886,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>855.4509062314407</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286663</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10211,10 +10211,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10357,22 +10357,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>227.574314522856</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
@@ -10442,16 +10442,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>590.5593685239227</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10603,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10831,22 +10831,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11071,16 +11071,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>1019.531894059365</v>
+        <v>260.2767127830747</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11150,19 +11150,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q42" t="n">
-        <v>474.944204781957</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,22 +11305,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>814.0147147172949</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,22 +11372,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>781.6471621574452</v>
+        <v>418.2054371258494</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -11396,10 +11396,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>107.97203123693</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.0981677402027</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -23436,7 +23436,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>2.326677470263178</v>
       </c>
     </row>
     <row r="14">
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>107.9720312369302</v>
+        <v>107.9720312369329</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>170.3005832078632</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080138</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>9.593756416534092</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>60.1185983045572</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.346971505336541</v>
       </c>
       <c r="E22" t="n">
-        <v>2.540411739665615</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24186,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>160.1225587763474</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -24651,7 +24651,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>63.42025955381636</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>101.3112943167917</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24858,7 +24858,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>110.098167740202</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>28.8652360907096</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>18.44967133088754</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>47.18544517283263</v>
       </c>
       <c r="D40" t="n">
-        <v>110.098167740202</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -25569,7 +25569,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>73.42412869296655</v>
+        <v>73.42412869296919</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25842,13 +25842,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>117.2205539080147</v>
+        <v>122.4992781335011</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>73.42412869296919</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>73.42412869296653</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>65.23940003763285</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>2.326677470263093</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26043,7 +26043,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>622876.2988354322</v>
+        <v>622876.2988354318</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>622876.2988354322</v>
+        <v>622876.2988354318</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>632549.5568491762</v>
+        <v>632549.5568491761</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>632549.5568491762</v>
+        <v>632549.5568491761</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>632549.5568491762</v>
+        <v>632549.5568491761</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>632549.5568491762</v>
+        <v>632549.5568491761</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>632549.5568491762</v>
+        <v>632549.5568491761</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>622876.2988354322</v>
+        <v>622876.2988354318</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>622876.2988354322</v>
+        <v>622876.2988354318</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>378587.7342072561</v>
+        <v>378587.7342072559</v>
       </c>
       <c r="C2" t="n">
         <v>378587.7342072561</v>
@@ -26322,10 +26322,10 @@
         <v>378587.7342072559</v>
       </c>
       <c r="E2" t="n">
-        <v>359733.2891431421</v>
+        <v>359733.2891431419</v>
       </c>
       <c r="F2" t="n">
-        <v>359733.2891431419</v>
+        <v>359733.2891431418</v>
       </c>
       <c r="G2" t="n">
         <v>365319.7620393407</v>
@@ -26334,16 +26334,16 @@
         <v>365319.7620393408</v>
       </c>
       <c r="I2" t="n">
-        <v>365319.7620393407</v>
+        <v>365319.7620393408</v>
       </c>
       <c r="J2" t="n">
-        <v>365319.7620393409</v>
+        <v>365319.7620393408</v>
       </c>
       <c r="K2" t="n">
         <v>365319.7620393407</v>
       </c>
       <c r="L2" t="n">
-        <v>365319.7620393406</v>
+        <v>365319.7620393408</v>
       </c>
       <c r="M2" t="n">
         <v>365319.7620393407</v>
@@ -26352,10 +26352,10 @@
         <v>365319.7620393407</v>
       </c>
       <c r="O2" t="n">
-        <v>359733.2891431421</v>
+        <v>359733.2891431418</v>
       </c>
       <c r="P2" t="n">
-        <v>359733.2891431421</v>
+        <v>359733.2891431418</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>207432.2876165612</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7625.622083481228</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>173130.4912056398</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>148130.4125690142</v>
       </c>
       <c r="D4" t="n">
-        <v>148130.4125690142</v>
+        <v>148130.4125690141</v>
       </c>
       <c r="E4" t="n">
         <v>14883.79308177073</v>
       </c>
       <c r="F4" t="n">
-        <v>14883.79308177074</v>
+        <v>14883.79308177073</v>
       </c>
       <c r="G4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="H4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="I4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="J4" t="n">
         <v>15116.17365792743</v>
@@ -26447,13 +26447,13 @@
         <v>15116.17365792743</v>
       </c>
       <c r="L4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="M4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="N4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="O4" t="n">
         <v>14883.79308177073</v>
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>76058.4781080325</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>76058.4781080325</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>76058.4781080325</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>76058.4781080325</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-23393.66281392342</v>
+        <v>-23393.66281392364</v>
       </c>
       <c r="C6" t="n">
-        <v>163011.0706008138</v>
+        <v>163011.0706008137</v>
       </c>
       <c r="D6" t="n">
-        <v>163011.0706008136</v>
+        <v>163011.0706008137</v>
       </c>
       <c r="E6" t="n">
-        <v>61358.73033677765</v>
+        <v>61286.21324037731</v>
       </c>
       <c r="F6" t="n">
-        <v>268791.0179533387</v>
+        <v>268718.5008569382</v>
       </c>
       <c r="G6" t="n">
-        <v>264827.9041095024</v>
+        <v>264776.8734473179</v>
       </c>
       <c r="H6" t="n">
-        <v>272453.5261929837</v>
+        <v>272402.4955307994</v>
       </c>
       <c r="I6" t="n">
-        <v>272453.5261929836</v>
+        <v>272402.4955307994</v>
       </c>
       <c r="J6" t="n">
-        <v>126919.8562581673</v>
+        <v>126868.8255959829</v>
       </c>
       <c r="K6" t="n">
-        <v>272453.5261929836</v>
+        <v>272402.4955307993</v>
       </c>
       <c r="L6" t="n">
-        <v>272453.5261929835</v>
+        <v>272402.4955307994</v>
       </c>
       <c r="M6" t="n">
-        <v>99323.03498734388</v>
+        <v>99272.00432515978</v>
       </c>
       <c r="N6" t="n">
-        <v>272453.5261929836</v>
+        <v>272402.4955307993</v>
       </c>
       <c r="O6" t="n">
-        <v>268791.0179533389</v>
+        <v>268718.5008569382</v>
       </c>
       <c r="P6" t="n">
-        <v>268791.0179533389</v>
+        <v>268718.5008569381</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26828,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>694.7339978717828</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>27.82210658547979</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.7339978717828</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.7339978717828</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>27.82210658547979</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>331.3947386960825</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>296.8468361521185</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27545,16 +27545,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>21.430475280785</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -27593,7 +27593,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>65.46263412532764</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>385.0527817684127</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27675,16 +27675,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>337.1806184197225</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27827,13 +27827,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>240.9059542963599</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>117.2205539080143</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>342.9323154271056</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>74.65813289307462</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>110.0981677402031</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>33.73833723251801</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -28064,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34704,25 +34704,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>144.2794790315871</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="N2" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>440.0596680121643</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P3" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>533.7539620806203</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>556.227813115594</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,28 +35011,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>440.0596680121643</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35184,10 +35184,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
+        <v>533.7539620806206</v>
+      </c>
+      <c r="O8" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="O8" t="n">
-        <v>167.4878420635545</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
+        <v>150.7519016821045</v>
+      </c>
+      <c r="M9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>357.2118800478172</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>895.4788644908282</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>430.6413210459251</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>325.8866942978172</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35667,7 +35667,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35734,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35901,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>361.4796159561464</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,22 +36129,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36606,13 +36606,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>818.1712833969947</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184349</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37077,22 +37077,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37162,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>554.7947677291133</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37323,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37551,22 +37551,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37791,16 +37791,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>982.2522712249191</v>
+        <v>222.9970899486287</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,19 +37870,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q42" t="n">
-        <v>452.1971664929785</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,22 +38025,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>776.7350918828488</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>760.3041339439036</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38116,10 +38116,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
